--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iam\Box\Diversity-NSF\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nlichti\Box\Diversity-NSF\Lichti_et_al_Diversity_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56046647-58FA-4F43-A40C-6AEF7696FD8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38505" yWindow="-3390" windowWidth="38625" windowHeight="21225" tabRatio="764" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="resource_attributes" sheetId="1" r:id="rId1"/>
-    <sheet name="states" sheetId="2" r:id="rId2"/>
-    <sheet name="nutrients" sheetId="3" r:id="rId3"/>
-    <sheet name="toxins" sheetId="9" r:id="rId4"/>
-    <sheet name="handling_time" sheetId="5" r:id="rId5"/>
-    <sheet name="general" sheetId="4" r:id="rId6"/>
-    <sheet name="habitats" sheetId="10" r:id="rId7"/>
-    <sheet name="gammas" sheetId="6" r:id="rId8"/>
-    <sheet name="eat_transform" sheetId="12" r:id="rId9"/>
-    <sheet name="cache_transform" sheetId="7" r:id="rId10"/>
-    <sheet name="fix_gain" sheetId="11" r:id="rId11"/>
+    <sheet name="metadata" sheetId="20" r:id="rId1"/>
+    <sheet name="resource_attributes" sheetId="1" r:id="rId2"/>
+    <sheet name="states" sheetId="2" r:id="rId3"/>
+    <sheet name="nutrients" sheetId="3" r:id="rId4"/>
+    <sheet name="toxins" sheetId="9" r:id="rId5"/>
+    <sheet name="handling_time" sheetId="5" r:id="rId6"/>
+    <sheet name="general" sheetId="4" r:id="rId7"/>
+    <sheet name="habitats" sheetId="10" r:id="rId8"/>
+    <sheet name="gammas" sheetId="6" r:id="rId9"/>
+    <sheet name="assign_state" sheetId="17" r:id="rId10"/>
+    <sheet name="assign_rate" sheetId="15" r:id="rId11"/>
+    <sheet name="assign_acceptance" sheetId="16" r:id="rId12"/>
+    <sheet name="assign_handling_time" sheetId="18" r:id="rId13"/>
+    <sheet name="assign_attention" sheetId="13" r:id="rId14"/>
+    <sheet name="assign_vigilance" sheetId="14" r:id="rId15"/>
+    <sheet name="assign_attributes" sheetId="19" r:id="rId16"/>
+    <sheet name="eat_transform" sheetId="12" r:id="rId17"/>
+    <sheet name="cache_transform" sheetId="7" r:id="rId18"/>
+    <sheet name="fix_gain" sheetId="11" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
   <si>
     <t>species</t>
   </si>
@@ -102,9 +109,6 @@
     <t>excavation_time</t>
   </si>
   <si>
-    <t>max_rate</t>
-  </si>
-  <si>
     <t>buried</t>
   </si>
   <si>
@@ -165,18 +169,12 @@
     <t>clearance</t>
   </si>
   <si>
-    <t>retrieval</t>
-  </si>
-  <si>
     <t>recache_factor</t>
   </si>
   <si>
     <t>adlib</t>
   </si>
   <si>
-    <t xml:space="preserve">Units: max_rate = m^2/sec; excavaton = sec; boldness = arbitrary positive real; active = proportion of day spent actively foraging; pop_den = foragers/ha; retrieval = adjustment of own cache density to account for memory (effective density = n * 10^retrieval); recache_factor = utility gain from recaching a seed is divided by 10^recache_factor for all components except toxins; adlib = logical flag to run model without (=TRUE) depleatible resources </t>
-  </si>
-  <si>
     <t>Units: Arbitrary (utility) positive real cost of operating in a habitat, on a log10 scale</t>
   </si>
   <si>
@@ -214,13 +212,360 @@
   </si>
   <si>
     <t>N/N-1</t>
+  </si>
+  <si>
+    <t>travel_speed</t>
+  </si>
+  <si>
+    <t>max_search_rate</t>
+  </si>
+  <si>
+    <t>max_relocation_rate</t>
+  </si>
+  <si>
+    <t>harvest.h1</t>
+  </si>
+  <si>
+    <t>retrieve.h1</t>
+  </si>
+  <si>
+    <t>pilfer.h1</t>
+  </si>
+  <si>
+    <t>ignore.h1</t>
+  </si>
+  <si>
+    <t>Units: binary (0/1); this is a transformation matrix that assigns habitat-specific search strategies to habitat-specific prey states; the matrix represented here will be transposed when it is loaded</t>
+  </si>
+  <si>
+    <t>Units: binary (0/1); this is a transformation matrix that assigns habitat-specific vigilance to habitat-specific prey states; the matrix represented here will be transposed when it is loaded</t>
+  </si>
+  <si>
+    <t>vigilance.h1</t>
+  </si>
+  <si>
+    <t>density_conversion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Units: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max_*_rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = m^2/sec; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>excavaton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = sec; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boldness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = arbitrary positive real; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>active</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = proportion of day spent actively foraging; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pop_den</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = foragers/ha; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>retrieval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = adjustment of own cache density to account for memory (effective density = n * 10^retrieval); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">recache_factor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= utility gain from recaching a seed is divided by 10^recache_factor for all components except toxins; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adlib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = logical flag to run model without (=TRUE) depleatible resources; state prey density / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>density conversion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = prey per square meter (10000 assumes prey state in per hectare basis)  </t>
+    </r>
+  </si>
+  <si>
+    <t>Units: binary (0/1); this is a transformation matrix that assigns habitat-specific search rates to habitat-specific prey states; the matrix represented here will be transposed when it is loaded</t>
+  </si>
+  <si>
+    <t>searchRate.h1</t>
+  </si>
+  <si>
+    <t>relocationRate.h1</t>
+  </si>
+  <si>
+    <t>Units: binary (0/1); this is a transformation matrix that assigns habitat-specific acceptance rates to habitat-specific prey states; the matrix represented here will be transposed when it is loaded</t>
+  </si>
+  <si>
+    <t>sp1.free.h1</t>
+  </si>
+  <si>
+    <t>sp1.ownCache.h1</t>
+  </si>
+  <si>
+    <t>sp1.otherCache.h1</t>
+  </si>
+  <si>
+    <t>sp1.abandoned.h1</t>
+  </si>
+  <si>
+    <t>sp1.dead.h1</t>
+  </si>
+  <si>
+    <t>sp1.accept.h1</t>
+  </si>
+  <si>
+    <t>Units: binary (0/1); this is a transformation matrix that assigns state-dependent traits to species and habitat-specific prey states; the matrix represented here will be transposed when it is loaded</t>
+  </si>
+  <si>
+    <t>Units: binary (0/1); this is a transformation matrix that assigns species (and maybe habitat)-specific handling times to habitat-specific prey states; the matrix represented here will be transposed when it is loaded</t>
+  </si>
+  <si>
+    <t>Rationales for parameter values</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Reasoning</t>
+  </si>
+  <si>
+    <t>based on a rescaling of max_search_rate = 0.2 m2/s under the assumption that memory-based retrieval leads to an effective search area of pi/100 m2 (i.e., a 10 cm radius circle)</t>
+  </si>
+  <si>
+    <t>3.5 m/s is a moderately fast pace for a bounding squirrel</t>
+  </si>
+  <si>
+    <t>value of 0.2 m2/s based on informal observations of foraging gray squirrels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">values of 1 for feee and onwCache versus 0.9 for otherCache and abandoned are conservative while maintaining cache cypsis to pilfers </t>
+  </si>
+  <si>
+    <t>based on moderately large norther red oak</t>
+  </si>
+  <si>
+    <t>currently set to zero because it is not being used</t>
+  </si>
+  <si>
+    <t>nutrients</t>
+  </si>
+  <si>
+    <t>daily energy requirement based on field metabolic rate for easter gray squirrel in Hudson et al. 2013</t>
+  </si>
+  <si>
+    <t>energy (resource_attributes)</t>
+  </si>
+  <si>
+    <t>tannin (resource_attributes)</t>
+  </si>
+  <si>
+    <t>tannin (toxins)</t>
+  </si>
+  <si>
+    <t>arbitrary values used during model development to test coding of functional response</t>
+  </si>
+  <si>
+    <t>handling times</t>
+  </si>
+  <si>
+    <t>Hadj-Chek et al. 1998 data for northern red oak</t>
+  </si>
+  <si>
+    <t>max_vigilance</t>
+  </si>
+  <si>
+    <t>excavation time</t>
+  </si>
+  <si>
+    <t>rough guess</t>
+  </si>
+  <si>
+    <t>Eastern gray squirrel population density in PanTHERIA database (Jones et al. 2008)</t>
+  </si>
+  <si>
+    <t>1 is a baseline reference value leading to fear = 0 at vigilance = 1 (max_vigilance must be &gt;= 1)</t>
+  </si>
+  <si>
+    <t>1 is a baseline reference value leading to a linear response to vigilance (boldness must be &gt; 0; values &gt; 1 lead to a concave curve)</t>
+  </si>
+  <si>
+    <t>habitats</t>
+  </si>
+  <si>
+    <t>(negative) cost of fear as a utility/second; current value is arbitrary</t>
+  </si>
+  <si>
+    <t>gammas</t>
+  </si>
+  <si>
+    <t>cost or benefit rates associated with seed traits and uses (values are a template)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +579,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,7 +596,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -251,13 +604,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,40 +909,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.140625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -579,49 +1062,53 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -630,15 +1117,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -650,18 +1137,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -670,29 +1157,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -707,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -716,21 +1203,804 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -741,7 +2011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -752,9 +2022,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -763,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -780,122 +2050,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.9</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <f>B5</f>
-        <v>0.9</v>
-      </c>
-      <c r="C6" t="b">
-        <f>C5</f>
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -904,21 +2092,145 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.9</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <f>B5</f>
+        <v>0.9</v>
+      </c>
+      <c r="C6" t="b">
+        <f>C5</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -926,7 +2238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -939,35 +2251,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>-0.1</v>
@@ -981,22 +2293,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +2319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1016,101 +2328,6 @@
       </c>
       <c r="C3">
         <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="14.796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1119,31 +2336,152 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>6.3659999999999997</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1154,22 +2492,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +2518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1191,9 +2529,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1202,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1216,142 +2554,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11826EAC-C8C3-44CE-938E-C6608D3EE237}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>